--- a/Data-Analysis.xlsx
+++ b/Data-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive - University of Plymouth\Programming\C++\Motion-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B0BC0A-2FBE-4F97-A582-CF868BEA229E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D0444-E086-4E51-A4BF-C55725673ABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{2599325D-A434-42D1-9928-5168896F051E}"/>
   </bookViews>
@@ -3320,7 +3320,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$11:$D$219</c:f>
+              <c:f>Sheet2!$E$11:$E$219</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="209"/>
@@ -4131,6 +4131,3810 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>3967407.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6184370</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4662876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4746749.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4536858.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6024416.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5141781.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5253399.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3373937.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5613513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5784039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7318289.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4263680.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4980214.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5583366.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4601307.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5177534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5163886.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5049258.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4867505</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4722676</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5619638.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4136336.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6993162</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5263620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5449023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5052960.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4833314.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5004516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5830711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4810126</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4916877.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5646764.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5175033.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4652052</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7494574.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6481448.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4177280</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4537257</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4269753.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5216794</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4600283</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5493065.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4501019</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5546624</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3589841.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5869265</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7301151.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5936841.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4839578</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5455249.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4665524</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4817229</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4630733.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5927057.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4161858.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4348084.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5440008</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4899604</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7431857</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4898303.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4966996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5134010.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4962585</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5479070.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3396461.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5450345</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4805343.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5389563.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4329052</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4816000.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7572737.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5412287.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5330309.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5575761.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4178838.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4609776.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4749053.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5791189</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3927232.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5386639</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4729692</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4334200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7540906</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6187181.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3936024.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5874422</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5980097</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5311121.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3618155</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4677241.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5412262.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3894574.75</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4942068.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5411578.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7254577</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4750217.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6582106.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5998916.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6880532.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5545380.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7150143</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9863581</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9810516</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8358730.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11830416</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5638675.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9288029</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5416858.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6625416</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4766413</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5152849</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5029566</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5248444.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5223895.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4927334.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4031432.75</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4791144</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6046017</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5947415</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5631923</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7537443.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5596523.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5090767</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7395511</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10038669</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5420538.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7131344</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8837924</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5501675</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4679148</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6312431</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5130957.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5260931.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4738439.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5607078</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5502863.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4699901.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5417430.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6117373.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5229808</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5054508.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8692135</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7546256</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5423116</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5765715</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11334009</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>12906612</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4980893.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6752213.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9765732</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5297921.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2903029</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3890236.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5158925.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5358624.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9735543</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>12590828</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8751820</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6171116.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3871202.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3227020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4287753.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4674149</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6439578.5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3436388.75</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5178281.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4503671</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5413205</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3899869.5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4911859.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4645727.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4965613</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4555344.5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5123645.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4214745.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4683042.5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4971905.5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5800069.5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3723150.75</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7343038.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4865394</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4596842.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4963453</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5743875</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4761834.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5143711.5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4729290</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4822514</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3633909.75</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5193711.5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4719381</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7102574.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5346798</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5488038.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4779251.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4183995.25</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4972591</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5322290.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4881391.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4285604</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4673066.5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5365142</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5057589</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6569687</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4419515.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5049977.5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5794102</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5154075.5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4748977</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4203926.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5531970.5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5118713</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5154351</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4751547</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5628076.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>7197842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97E6-4330-B5F7-91A6AF85C188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="4">
+                  <c:v>4819652.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5231054.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5022536.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5140641.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4866078.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5081409.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5033334.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5468635.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5270691.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5591947.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5585918</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5349371.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4921220.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5101261.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5115070.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4971898.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4996172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5084592.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4879082.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5267863.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5347086.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5492356.0499999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5379020.4500000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5518416</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5120686.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5234105</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5106325.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5079109</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5241799</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5275902.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5040170.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5577060.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5889974.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5596077.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5468522.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5392062.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4936506.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4560273.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4823430.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4816183</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5071557.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4746166.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4999963.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5361580.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5648744.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5507335.5499999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5880417.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5639668.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5142884.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4881662.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5099158.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4840480.45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4776992.55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4901548.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4955322.45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5256282.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5403571.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5527353.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5466154.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5478750.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5088193.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4787824.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4884494.45</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4818761.05</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4904156.75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4674153.05</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4958060.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5382539.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5503928.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5492077.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5741419.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5613986.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5021394.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4888747.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4980923.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4651218.05</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4892778.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4916761.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4833790.55</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5183733.95</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5635723.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5345600.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5574546.75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5903726.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5457769.25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4943963.95</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5092207.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4999775.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4582671.05</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4508860.45</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4867545.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5383012.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5250603.25</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5788109.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5999479.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6293270</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5951430.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6431415.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7087710.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7850030.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8145670.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9402677.3000000007</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9100383.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8985273.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8106541.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7759879</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6347078.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6249913.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5398220.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5364537.7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5084233.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5116417.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4892134.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4844450.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5003964.75</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5148668.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5289586.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5990788.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6151864.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5960814.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6250433.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7131782.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6708401.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7015365.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7764797.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7386030.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6314125.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6492504.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6092427.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5377028.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5224381.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5409967.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5248054</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5161842.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5193142.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5468929.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5393475.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5303804.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6102251.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6528016.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6389164.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6496346.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7752246.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8595141.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8082069.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8347888.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9147892</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7940674.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5939957.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5721826.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5403168.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4521747.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5409271.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7346831.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8319148.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8521586.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8224102</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6922397.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5261782.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4446248.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4499940.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4412977.95</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4803230.25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4846413.75</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4994224.95</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4486283.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4781377.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4674866.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4767254.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4595682.8</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4840438</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4701015.2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4708478.2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4709736.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4958681.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4678582.75</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5304241.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5340711.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5265699.05</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5098375.75</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5502520.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4986279.8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5041943.3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5068432.8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5040245</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4618251.95</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4704627.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4619761.25</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5094418.1500000004</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5199274.95</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5570100.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5487208.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5380131.5499999998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4954134.8499999996</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4949233.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4827903.95</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4729174.45</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4826988.7</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4905498.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4852558.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5190217.7</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5217000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5292382.2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5378174.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5397471.5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5033329.5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4990211.7</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5086610.3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4951532.5</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4951587.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4952101.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5236931.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5570105.9000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-97E6-4330-B5F7-91A6AF85C188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="6">
+                  <c:v>5037779.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5221493.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4820002.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4955808.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5103992.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5501339.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5249805.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5226724.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5273862.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5449201.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5386918.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5298325.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4974178.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5060438.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5023647.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5028829.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4962405.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5221780.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5236028.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5293137.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5319630.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5335436.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5247561.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5489615.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5177753</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5128218.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5156467.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5173906.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5148011.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5503734.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5596696.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5506290.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5452058.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5255342.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5261308.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5253912.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4967983.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4685064.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4880685.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4745340.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4973841.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5271607.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5462544.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5369188.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5505507.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5379635.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5554976.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5378043.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5181744.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4928175.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4857962.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4855784.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4889224.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5262743.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5300967.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5163815.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5302694.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5390480.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5396060.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5181326.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4898253.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4884973.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4945339.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4830345.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4809405.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5108500.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5396475.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5379327.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5489387.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5316426.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5356530.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5346966.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5092459.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4880308.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4888355.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4767488.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4789683.25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5208416.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5413862.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5148839.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5427009.25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5511788.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5594850.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5492558.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5083463.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4972760.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4966839.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4833645.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4752428.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5030065.3928571427</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5191788.6071428573</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5463912.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5547719.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5974285.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6060472.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6308839.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6681553.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7404453.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7658257.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8491328.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8313920.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8848584.4285714291</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8600972.3571428563</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8138377.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7417791.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6959808.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5988258.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5932510.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5351920.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5281988.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4911419.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4914952.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5042547.75</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5173669.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5228451.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5558958.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5654556.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5805890.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6177942.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6748321.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6673053.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6887256.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7073039.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7059489.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7000687.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6845961.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6144859.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6122058.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5780215.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5318665.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5318835.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5321800.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5193943.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5334859.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5330413.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5375566.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5816288.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6108201.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6211518.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6261273.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7006506.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8103193.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8092676.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7815545</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8132613</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>8114728.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7705772.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6642376.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5535564.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5589526.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6015716</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6419301.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6912715.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7379584.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7376865.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7100879.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6947897.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6224841.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5346091.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4586744.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4444910.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4535263.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4847575.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4792163.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4826121.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4569857.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4788318.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4699327.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4787894.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4616686.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4728568.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4737146.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4902052.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4724557.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5122799.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5085906.6071428573</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5140491.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5180550.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5290831.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5142512.6071428573</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5345449.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4972057.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4965931.5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4828369.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4861263.75</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4714907.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5049298.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5078311.25</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5186703.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5180523.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5259107.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5227518.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5313648.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4996336.6071428573</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4844737.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4728312.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4812011.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4936810.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5164967.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5035999.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5060083.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5275582.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5344298.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5256274.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5134323</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4986077.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5085963.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5100873.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4951937.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5019651.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5369489.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-97E6-4330-B5F7-91A6AF85C188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="8">
+                  <c:v>4876866.333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5059766.916666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5015285.694444444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5310331.638888889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5256657.305555556</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5305919.083333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5256913.527777778</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5196860.861111111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5188431.361111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5387314.555555556</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5324619.611111111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5222782.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4934381</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5085043</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4991278.805555556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5147922.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5221513.027777778</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5251678.472222222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5239353.361111111</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5215359.583333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5230583.027777778</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5353698.027777778</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5263752.194444444</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5350478.944444444</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5200879.222222222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5191036.277777778</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5102483.944444444</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5373774.388888889</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5556900.388888889</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5464985.277777778</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5321268.166666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5261226.777777778</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5294550.833333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5178275.111111111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5213612</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5196830.555555556</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4980391.611111111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4659101.972222222</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4847100.305555556</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5154199.694444444</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5339431.694444444</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5297518.805555556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5392515.083333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5300566.027777778</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5335700.472222222</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5233934.861111111</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5493625.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5303913.638888889</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4975795.083333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4920591.361111111</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4927260.916666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5146883.972222222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5172748.361111111</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5189389.138888889</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5245308.805555556</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5138145.194444444</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5284502.111111111</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5178766.194444444</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5179914.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5169441.361111111</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4942519.861111111</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4879269.694444444</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4862492.416666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5133462.083333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5183429.027777778</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5166900.027777778</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5409044.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5267766</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5246036.333333333</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5174868.555555556</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5337328.222222222</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5238576.25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4995676.416666667</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4919832.472222222</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4809153.638888889</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5027503.027777778</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5250652.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5175790.888888889</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5300831.833333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5321821.611111111</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5475587.027777778</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5279088.805555556</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5273260.972222222</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5393045.694444444</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4987897.777777778</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4849551.888888889</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5013502.361111111</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5166852.916666667</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5030199.638888889</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5171420.194444444</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5435949.25</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5680759.361111111</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5695550.25</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6057280.055555556</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6604114.777777778</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7092885.611111111</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7215569.333333333</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8002258.055555556</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7897432.388888889</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8262889.333333333</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8100258.888888889</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8220262.833333333</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7955403.944444444</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7431989.277777778</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6900772.611111111</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6555185.277777778</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5821127.444444444</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5742089.555555556</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5158023.305555556</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5088499.472222222</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5024121.805555556</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5155344.25</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5208574.694444444</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5487227.75</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5525903.194444444</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5511111.138888889</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5785352.972222222</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6452823.666666667</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6522756.388888889</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6643348.277777778</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6964515.944444444</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6950043.944444444</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6632455.555555556</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6712000.833333333</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6716466.444444444</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6479290.944444444</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5890376.555555556</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5911103.166666667</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5730160.888888889</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5270380.611111111</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5261020.111111111</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5420822.944444444</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5300531.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5292037.166666667</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5673282</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5985261.611111111</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5964821.388888889</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5994027.111111111</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6731150.166666667</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7563281.444444444</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7437005.888888889</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7606162.055555556</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8129631.333333333</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7752496.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7236582.388888889</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7066262.444444444</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6998841.388888889</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6334909.777777778</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5982568.777777778</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6828117.055555556</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7050295.555555556</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6650893.833333333</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6492369.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6528368.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6572537.055555556</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6518673</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6638779</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5938872.972222222</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5115256.694444444</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4643240.138888889</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4559027.75</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4562212.972222222</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4749417.361111111</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4789192.25</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4821577.138888889</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4612217.805555556</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4799690.777777778</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4692631.222222222</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4712561.388888889</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4663528.111111111</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4874661.444444444</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4742582.694444444</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5042283.916666667</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5031148.472222222</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5035759.361111111</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5017960.194444444</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5187863.472222222</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5196618.138888889</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5215707.694444444</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5096732.194444444</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5218883.666666667</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4806758.25</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4843237.972222222</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4856853.361111111</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5094533.527777778</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5050413.861111111</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5131103.194444444</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5090607.638888889</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5030019.333333333</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5046694.555555556</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5234292.416666667</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5199590.194444444</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5151392.75</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4881447.416666667</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4883485.638888889</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4835657.916666667</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5034595.194444444</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5060764.111111111</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5069362.611111111</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5121786.111111111</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5152084.333333333</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5203570.222222222</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5151443.555555556</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5169980.055555556</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5176771.611111111</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5019512.055555556</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5056404.444444444</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5120637.666666667</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5276608.777777778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-97E6-4330-B5F7-91A6AF85C188}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="360099279"/>
+        <c:axId val="360112591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360099279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360112591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360112591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360099279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>7 Frame Average</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$9:$D$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="211"/>
+                <c:pt idx="0">
+                  <c:v>5037779.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5221493.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4820002.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4955808.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5103992.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5501339.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5249805.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5226724.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5273862.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5449201.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5386918.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5298325.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4974178.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5060438.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5023647.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5028829.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4962405.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5221780.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5236028.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5293137.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5319630.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5335436.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5247561.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5489615.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5177753</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5128218.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5156467.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5173906.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5148011.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5503734.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5596696.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5506290.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5452058.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5255342.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5261308.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5253912.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4967983.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4685064.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4880685.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4745340.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4973841.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5271607.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5462544.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5369188.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5505507.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5379635.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5554976.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5378043.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5181744.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4928175.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4857962.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4855784.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4889224.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5262743.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5300967.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5163815.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5302694.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5390480.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5396060.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5181326.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4898253.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4884973.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4945339.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4830345.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4809405.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5108500.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5396475.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5379327.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5489387.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5316426.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5356530.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5346966.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5092459.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4880308.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4888355.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4767488.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4789683.25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5208416.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5413862.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5148839.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5427009.25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5511788.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5594850.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5492558.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5083463.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4972760.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4966839.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4833645.8214285718</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4752428.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5030065.3928571427</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5191788.6071428573</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5463912.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5547719.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5974285.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6060472.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6308839.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6681553.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7404453.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7658257.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8491328.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8313920.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8848584.4285714291</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8600972.3571428563</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8138377.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7417791.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6959808.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5988258.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5932510.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5351920.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5281988.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4911419.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4914952.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5042547.75</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5173669.0357142854</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5228451.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5558958.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5654556.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5805890.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6177942.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6748321.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6673053.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6887256.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7073039.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7059489.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7000687.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6845961.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6144859.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6122058.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5780215.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5318665.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5318835.5714285718</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5321800.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5193943.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5334859.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5330413.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5375566.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5816288.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6108201.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6211518.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6261273.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7006506.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8103193.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8092676.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7815545</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8132613</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8114728.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7705772.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6642376.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5535564.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5589526.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6015716</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6419301.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6912715.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7379584.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7376865.7142857146</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7100879.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6947897.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6224841.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5346091.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4586744.1071428573</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4444910.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4535263.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4847575.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4792163.3214285718</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4826121.9642857146</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4569857.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4788318.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4699327.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4787894.9285714282</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4616686.4285714282</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4728568.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4737146.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4902052.2857142854</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4724557.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5122799.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5085906.6071428573</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5140491.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5180550.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5290831.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5142512.6071428573</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5345449.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4972057.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4965931.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4828369.6785714282</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4861263.75</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4714907.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5049298.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5078311.25</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5186703.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5180523.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5259107.1785714282</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5227518.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5313648.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4996336.6071428573</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4844737.4642857146</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4728312.8928571427</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4812011.5357142854</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4936810.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5164967.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5035999.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5060083.0714285718</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5275582.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5344298.3571428573</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5256274.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5134323</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4986077.7857142854</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5085963.1428571427</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5100873.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4951937.2142857146</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5019651.6428571427</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5369489.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0890-443A-BA0A-10B90E346511}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="523948815"/>
+        <c:axId val="523962127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="523948815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523962127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="523962127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523948815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4252,6 +8056,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6390,6 +10274,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6435,13 +11351,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -6471,13 +11387,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
@@ -6507,16 +11423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>125123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>10823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6536,6 +11452,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6494</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>136379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>96141</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>46732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF37B51-2838-4672-B7A5-1704A0D376A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64753</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>51953</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>84784</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E33F3DB-E423-42E8-9002-1384F3B79D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9505,26 +14495,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D4D0E4-7081-4CEB-978A-3EC391F25A97}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="H69" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="X74" sqref="X74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9535,10 +14527,13 @@
         <v>5</v>
       </c>
       <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9546,7 +14541,7 @@
         <v>3967407.75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9554,7 +14549,7 @@
         <v>6184370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9562,7 +14557,7 @@
         <v>4662876</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9570,7 +14565,7 @@
         <v>4746749.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9582,7 +14577,7 @@
         <v>4819652.3499999996</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9594,7 +14589,7 @@
         <v>5231054.0999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9605,8 +14600,12 @@
         <f t="shared" si="0"/>
         <v>5022536.4000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>AVERAGE(B3:B9)</f>
+        <v>5037779.9642857146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9617,8 +14616,12 @@
         <f t="shared" si="0"/>
         <v>5140641.0999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" ref="D10:D73" si="1">AVERAGE(B4:B10)</f>
+        <v>5221493.0714285718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9630,11 +14633,15 @@
         <v>4866078.75</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>4820002.75</v>
+      </c>
+      <c r="E11">
         <f>AVERAGE(B3:B11)</f>
         <v>4876866.333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9646,11 +14653,15 @@
         <v>5081409.6500000004</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D75" si="1">AVERAGE(B4:B12)</f>
+        <f t="shared" si="1"/>
+        <v>4955808.0357142854</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E75" si="2">AVERAGE(B4:B12)</f>
         <v>5059766.916666667</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9663,10 +14674,14 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
+        <v>5103992.25</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
         <v>5015285.694444444</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9679,10 +14694,14 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
+        <v>5501339.5357142854</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
         <v>5310331.638888889</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9695,10 +14714,14 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
+        <v>5249805.8214285718</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
         <v>5256657.305555556</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9711,10 +14734,14 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
+        <v>5226724.8214285718</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
         <v>5305919.083333333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9727,10 +14754,14 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
+        <v>5273862.9642857146</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
         <v>5256913.527777778</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9743,10 +14774,14 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
+        <v>5449201.5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
         <v>5196860.861111111</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9759,10 +14794,14 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
+        <v>5386918.7857142854</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
         <v>5188431.361111111</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9775,10 +14814,14 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
+        <v>5298325.5714285718</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
         <v>5387314.555555556</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9791,10 +14834,14 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
+        <v>4974178.2857142854</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
         <v>5324619.611111111</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9807,10 +14854,14 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
+        <v>5060438.9285714282</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
         <v>5222782.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9823,10 +14874,14 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
+        <v>5023647.7142857146</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
         <v>4934381</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9839,10 +14894,14 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
+        <v>5028829.4285714282</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
         <v>5085043</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9855,10 +14914,14 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
+        <v>4962405.0357142854</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
         <v>4991278.805555556</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9871,10 +14934,14 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
+        <v>5221780.4642857146</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
         <v>5147922.75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9887,10 +14954,14 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
+        <v>5236028.1071428573</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
         <v>5221513.027777778</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9903,10 +14974,14 @@
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
+        <v>5293137.3214285718</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
         <v>5251678.472222222</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9919,10 +14994,14 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
+        <v>5319630.9642857146</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
         <v>5239353.361111111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9935,10 +15014,14 @@
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
+        <v>5335436.4642857146</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
         <v>5215359.583333333</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9951,10 +15034,14 @@
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
+        <v>5247561.8214285718</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
         <v>5230583.027777778</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9967,10 +15054,14 @@
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
+        <v>5489615.2857142854</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
         <v>5353698.027777778</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9983,10 +15074,14 @@
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
+        <v>5177753</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
         <v>5263752.194444444</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9999,10 +15094,14 @@
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
+        <v>5128218.3571428573</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
         <v>5350478.944444444</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10015,10 +15114,14 @@
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
+        <v>5156467.1428571427</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
         <v>5200879.222222222</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10031,10 +15134,14 @@
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
+        <v>5173906.1428571427</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
         <v>5191036.277777778</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10047,10 +15154,14 @@
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
+        <v>5148011.5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
         <v>5102483.944444444</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10063,10 +15174,14 @@
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
+        <v>5503734.1428571427</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
         <v>5373774.388888889</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10079,10 +15194,14 @@
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
+        <v>5596696.6428571427</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
         <v>5556900.388888889</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10095,10 +15214,14 @@
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
+        <v>5506290.0714285718</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
         <v>5464985.277777778</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10111,10 +15234,14 @@
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
+        <v>5452058.5714285718</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
         <v>5321268.166666667</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10127,10 +15254,14 @@
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
+        <v>5255342.7142857146</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
         <v>5261226.777777778</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10143,10 +15274,14 @@
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
+        <v>5261308.5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
         <v>5294550.833333333</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10159,10 +15294,14 @@
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
+        <v>5253912.9285714282</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
         <v>5178275.111111111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10175,10 +15314,14 @@
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
+        <v>4967983.0714285718</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
         <v>5213612</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10191,10 +15334,14 @@
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
+        <v>4685064.5714285718</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
         <v>5196830.555555556</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10207,10 +15354,14 @@
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
+        <v>4880685.1428571427</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
         <v>4980391.611111111</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10223,10 +15374,14 @@
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
+        <v>4745340.1071428573</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
         <v>4659101.972222222</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10239,10 +15394,14 @@
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
+        <v>4973841.75</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
         <v>4847100.305555556</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10255,10 +15414,14 @@
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
+        <v>5271607.1071428573</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
         <v>5154199.694444444</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10271,10 +15434,14 @@
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
+        <v>5462544.0357142854</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
         <v>5339431.694444444</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10287,10 +15454,14 @@
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
+        <v>5369188.6785714282</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
         <v>5297518.805555556</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10303,10 +15474,14 @@
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
+        <v>5505507.3214285718</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
         <v>5392515.083333333</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10319,10 +15494,14 @@
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
+        <v>5379635.8928571427</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
         <v>5300566.027777778</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10335,10 +15514,14 @@
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
+        <v>5554976.9285714282</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
         <v>5335700.472222222</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10351,10 +15534,14 @@
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
+        <v>5378043.8571428573</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
         <v>5233934.861111111</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10367,10 +15554,14 @@
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
+        <v>5181744.7142857146</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
         <v>5493625.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10383,10 +15574,14 @@
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
+        <v>4928175.6785714282</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
         <v>5303913.638888889</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10399,10 +15594,14 @@
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
+        <v>4857962.3214285718</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
         <v>4975795.083333333</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10415,10 +15614,14 @@
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
+        <v>4855784.9642857146</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
         <v>4920591.361111111</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10431,10 +15634,14 @@
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
+        <v>4889224.9642857146</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
         <v>4927260.916666667</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10447,10 +15654,14 @@
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
+        <v>5262743.25</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
         <v>5146883.972222222</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10463,10 +15674,14 @@
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
+        <v>5300967.5357142854</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
         <v>5172748.361111111</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10479,10 +15694,14 @@
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
+        <v>5163815.8928571427</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
         <v>5189389.138888889</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10495,10 +15714,14 @@
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
+        <v>5302694.7857142854</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
         <v>5245308.805555556</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10511,10 +15734,14 @@
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
+        <v>5390480.5714285718</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
         <v>5138145.194444444</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10527,10 +15754,14 @@
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
+        <v>5396060.9285714282</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
         <v>5284502.111111111</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10543,10 +15774,14 @@
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
+        <v>5181326.25</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
         <v>5178766.194444444</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10559,10 +15794,14 @@
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
+        <v>4898253.1071428573</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
         <v>5179914.75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10575,10 +15814,14 @@
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
+        <v>4884973.1071428573</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
         <v>5169441.361111111</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10591,10 +15834,14 @@
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
+        <v>4945339.8928571427</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
         <v>4942519.861111111</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10602,15 +15849,19 @@
         <v>4329052</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C135" si="2">AVERAGE(B68:B72)</f>
+        <f t="shared" ref="C72:C135" si="3">AVERAGE(B68:B72)</f>
         <v>4674153.05</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
+        <v>4830345.8214285718</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
         <v>4879269.694444444</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10618,15 +15869,19 @@
         <v>4816000.5</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4958060.9000000004</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
+        <v>4809405.1785714282</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
         <v>4862492.416666667</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10634,15 +15889,19 @@
         <v>7572737.5</v>
       </c>
       <c r="C74">
+        <f t="shared" si="3"/>
+        <v>5382539.4000000004</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:D137" si="4">AVERAGE(B68:B74)</f>
+        <v>5108500.4642857146</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="2"/>
-        <v>5382539.4000000004</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="1"/>
         <v>5133462.083333333</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10650,15 +15909,19 @@
         <v>5412287.5</v>
       </c>
       <c r="C75">
+        <f t="shared" si="3"/>
+        <v>5503928.2000000002</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>5396475.6428571427</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="2"/>
-        <v>5503928.2000000002</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="1"/>
         <v>5183429.027777778</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10666,15 +15929,19 @@
         <v>5330309.5</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5492077.4000000004</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76:D139" si="3">AVERAGE(B68:B76)</f>
+        <f t="shared" si="4"/>
+        <v>5379327.7142857146</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:E139" si="5">AVERAGE(B68:B76)</f>
         <v>5166900.027777778</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10682,15 +15949,19 @@
         <v>5575761.5</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5741419.2999999998</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5489387.4285714282</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
         <v>5409044.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10698,15 +15969,19 @@
         <v>4178838.5</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5613986.9000000004</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5316426.7142857146</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
         <v>5267766</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10714,15 +15989,19 @@
         <v>4609776.5</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5021394.7</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5356530.2142857146</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
         <v>5246036.333333333</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10730,15 +16009,19 @@
         <v>4749053.5</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4888747.9000000004</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5346966.3571428573</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
         <v>5174868.555555556</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10746,15 +16029,19 @@
         <v>5791189</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4980923.8</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5092459.4285714282</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
         <v>5337328.222222222</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10762,15 +16049,19 @@
         <v>3927232.75</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4651218.05</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4880308.75</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
         <v>5238576.25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10778,15 +16069,19 @@
         <v>5386639</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4892778.1500000004</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4888355.8214285718</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
         <v>4995676.416666667</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10794,15 +16089,19 @@
         <v>4729692</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4916761.25</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4767488.75</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
         <v>4919832.472222222</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10810,15 +16109,19 @@
         <v>4334200</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4833790.55</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4789683.25</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
         <v>4809153.638888889</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10826,15 +16129,19 @@
         <v>7540906</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5183733.95</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5208416.0357142854</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
         <v>5027503.027777778</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10842,15 +16149,19 @@
         <v>6187181.5</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5635723.7000000002</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5413862.8928571427</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
         <v>5250652.25</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10858,15 +16169,19 @@
         <v>3936024.25</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5345600.75</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5148839.3571428573</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
         <v>5175790.888888889</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10874,15 +16189,19 @@
         <v>5874422</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5574546.75</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5427009.25</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
         <v>5300831.833333333</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10890,15 +16209,19 @@
         <v>5980097</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5903726.1500000004</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5511788.9642857146</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
         <v>5321821.611111111</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10906,15 +16229,19 @@
         <v>5311121.5</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5457769.25</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5594850.3214285718</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
         <v>5475587.027777778</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10922,15 +16249,19 @@
         <v>3618155</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4943963.95</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5492558.1785714282</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
         <v>5279088.805555556</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10938,15 +16269,19 @@
         <v>4677241.5</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5092207.4000000004</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5083463.25</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
         <v>5273260.972222222</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10954,15 +16289,19 @@
         <v>5412262.5</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4999775.5</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4972760.5357142854</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
         <v>5393045.694444444</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10970,15 +16309,19 @@
         <v>3894574.75</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4582671.05</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4966839.1785714282</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
         <v>4987897.777777778</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10986,15 +16329,19 @@
         <v>4942068.5</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4508860.45</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4833645.8214285718</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
         <v>4849551.888888889</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11002,15 +16349,19 @@
         <v>5411578.5</v>
       </c>
       <c r="C97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4867545.1500000004</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4752428.8928571427</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="5"/>
         <v>5013502.361111111</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11018,15 +16369,19 @@
         <v>7254577</v>
       </c>
       <c r="C98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5383012.25</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5030065.3928571427</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="5"/>
         <v>5166852.916666667</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11034,15 +16389,19 @@
         <v>4750217.5</v>
       </c>
       <c r="C99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5250603.25</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5191788.6071428573</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
         <v>5030199.638888889</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11050,15 +16409,19 @@
         <v>6582106.5</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5788109.5999999996</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5463912.1785714282</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
         <v>5171420.194444444</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11066,15 +16429,19 @@
         <v>5998916.5</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5999479.2000000002</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5547719.8928571427</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="5"/>
         <v>5435949.25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11082,15 +16449,19 @@
         <v>6880532.5</v>
       </c>
       <c r="C102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6293270</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5974285.2857142854</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="5"/>
         <v>5680759.361111111</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -11098,15 +16469,19 @@
         <v>5545380.5</v>
       </c>
       <c r="C103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5951430.7000000002</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6060472.7142857146</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="5"/>
         <v>5695550.25</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11114,15 +16489,19 @@
         <v>7150143</v>
       </c>
       <c r="C104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6431415.7999999998</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6308839.0714285718</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="5"/>
         <v>6057280.055555556</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11130,15 +16509,19 @@
         <v>9863581</v>
       </c>
       <c r="C105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7087710.7000000002</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6681553.9285714282</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="5"/>
         <v>6604114.777777778</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11146,15 +16529,19 @@
         <v>9810516</v>
       </c>
       <c r="C106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7850030.5999999996</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>7404453.7142857146</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="5"/>
         <v>7092885.611111111</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11162,15 +16549,19 @@
         <v>8358730.5</v>
       </c>
       <c r="C107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8145670.2000000002</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>7658257.1428571427</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="5"/>
         <v>7215569.333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11178,15 +16569,19 @@
         <v>11830416</v>
       </c>
       <c r="C108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9402677.3000000007</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>8491328.5</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="5"/>
         <v>8002258.055555556</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11194,15 +16589,19 @@
         <v>5638675.5</v>
       </c>
       <c r="C109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9100383.8000000007</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>8313920.3571428573</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="5"/>
         <v>7897432.388888889</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11210,15 +16609,19 @@
         <v>9288029</v>
       </c>
       <c r="C110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8985273.4000000004</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>8848584.4285714291</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="5"/>
         <v>8262889.333333333</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11226,15 +16629,19 @@
         <v>5416858.5</v>
       </c>
       <c r="C111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8106541.9000000004</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>8600972.3571428563</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="5"/>
         <v>8100258.888888889</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11242,15 +16649,19 @@
         <v>6625416</v>
       </c>
       <c r="C112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7759879</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>8138377.3571428573</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="5"/>
         <v>8220262.833333333</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11258,15 +16669,19 @@
         <v>4766413</v>
       </c>
       <c r="C113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6347078.4000000004</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>7417791.2142857146</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="5"/>
         <v>7955403.944444444</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11274,15 +16689,19 @@
         <v>5152849</v>
       </c>
       <c r="C114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6249913.0999999996</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6959808.1428571427</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="5"/>
         <v>7431989.277777778</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11290,15 +16709,19 @@
         <v>5029566</v>
       </c>
       <c r="C115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5398220.5</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5988258.1428571427</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="5"/>
         <v>6900772.611111111</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11306,15 +16729,19 @@
         <v>5248444.5</v>
       </c>
       <c r="C116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5364537.7</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5932510.8571428573</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="5"/>
         <v>6555185.277777778</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11322,15 +16749,19 @@
         <v>5223895.5</v>
       </c>
       <c r="C117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5084233.5999999996</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5351920.3571428573</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="5"/>
         <v>5821127.444444444</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11338,15 +16769,19 @@
         <v>4927334.5</v>
       </c>
       <c r="C118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5116417.9000000004</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5281988.3571428573</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="5"/>
         <v>5742089.555555556</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11354,15 +16789,19 @@
         <v>4031432.75</v>
       </c>
       <c r="C119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4892134.6500000004</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4911419.3214285718</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="5"/>
         <v>5158023.305555556</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11370,15 +16809,19 @@
         <v>4791144</v>
       </c>
       <c r="C120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4844450.25</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4914952.3214285718</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="5"/>
         <v>5088499.472222222</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11386,15 +16829,19 @@
         <v>6046017</v>
       </c>
       <c r="C121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5003964.75</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5042547.75</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="5"/>
         <v>5024121.805555556</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11402,15 +16849,19 @@
         <v>5947415</v>
       </c>
       <c r="C122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5148668.6500000004</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5173669.0357142854</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="5"/>
         <v>5155344.25</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11418,15 +16869,19 @@
         <v>5631923</v>
       </c>
       <c r="C123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5289586.3499999996</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5228451.6785714282</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="5"/>
         <v>5208574.694444444</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11434,15 +16889,19 @@
         <v>7537443.5</v>
       </c>
       <c r="C124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5990788.5</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5558958.5357142854</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="5"/>
         <v>5487227.75</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11450,15 +16909,19 @@
         <v>5596523.5</v>
       </c>
       <c r="C125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6151864.4000000004</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5654556.9642857146</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="5"/>
         <v>5525903.194444444</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11466,15 +16929,19 @@
         <v>5090767</v>
       </c>
       <c r="C126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5960814.4000000004</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5805890.4285714282</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="5"/>
         <v>5511111.138888889</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11482,15 +16949,19 @@
         <v>7395511</v>
       </c>
       <c r="C127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6250433.5999999996</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6177942.8571428573</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="5"/>
         <v>5785352.972222222</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11498,15 +16969,19 @@
         <v>10038669</v>
       </c>
       <c r="C128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7131782.7999999998</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6748321.7142857146</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="5"/>
         <v>6452823.666666667</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11514,15 +16989,19 @@
         <v>5420538.5</v>
       </c>
       <c r="C129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6708401.7999999998</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6673053.6428571427</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="5"/>
         <v>6522756.388888889</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11530,15 +17009,19 @@
         <v>7131344</v>
       </c>
       <c r="C130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7015365.9000000004</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6887256.6428571427</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="5"/>
         <v>6643348.277777778</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11546,15 +17029,19 @@
         <v>8837924</v>
       </c>
       <c r="C131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7764797.2999999998</v>
       </c>
       <c r="D131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>7073039.5714285718</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="5"/>
         <v>6964515.944444444</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11562,15 +17049,19 @@
         <v>5501675</v>
       </c>
       <c r="C132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7386030.0999999996</v>
       </c>
       <c r="D132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>7059489.7857142854</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="5"/>
         <v>6950043.944444444</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11578,15 +17069,19 @@
         <v>4679148</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6314125.9000000004</v>
       </c>
       <c r="D133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>7000687.0714285718</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="5"/>
         <v>6632455.555555556</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11594,15 +17089,19 @@
         <v>6312431</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6492504.4000000004</v>
       </c>
       <c r="D134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6845961.3571428573</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="5"/>
         <v>6712000.833333333</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11610,15 +17109,19 @@
         <v>5130957.5</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6092427.0999999996</v>
       </c>
       <c r="D135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6144859.7142857146</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="5"/>
         <v>6716466.444444444</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -11626,15 +17129,19 @@
         <v>5260931.5</v>
       </c>
       <c r="C136">
-        <f t="shared" ref="C136:C199" si="4">AVERAGE(B132:B136)</f>
+        <f t="shared" ref="C136:C199" si="6">AVERAGE(B132:B136)</f>
         <v>5377028.5999999996</v>
       </c>
       <c r="D136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>6122058.7142857146</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
         <v>6479290.944444444</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11642,15 +17149,19 @@
         <v>4738439.5</v>
       </c>
       <c r="C137">
+        <f t="shared" si="6"/>
+        <v>5224381.5</v>
+      </c>
+      <c r="D137">
         <f t="shared" si="4"/>
-        <v>5224381.5</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="3"/>
+        <v>5780215.2142857146</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
         <v>5890376.555555556</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11658,15 +17169,19 @@
         <v>5607078</v>
       </c>
       <c r="C138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5409967.5</v>
       </c>
       <c r="D138">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D138:D201" si="7">AVERAGE(B132:B138)</f>
+        <v>5318665.7857142854</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
         <v>5911103.166666667</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11674,15 +17189,19 @@
         <v>5502863.5</v>
       </c>
       <c r="C139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5248054</v>
       </c>
       <c r="D139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>5318835.5714285718</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="5"/>
         <v>5730160.888888889</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11690,15 +17209,19 @@
         <v>4699901.5</v>
       </c>
       <c r="C140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5161842.8</v>
       </c>
       <c r="D140">
-        <f t="shared" ref="D140:D203" si="5">AVERAGE(B132:B140)</f>
+        <f t="shared" si="7"/>
+        <v>5321800.3571428573</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ref="E140:E203" si="8">AVERAGE(B132:B140)</f>
         <v>5270380.611111111</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11706,15 +17229,19 @@
         <v>5417430.5</v>
       </c>
       <c r="C141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5193142.5999999996</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5193943.1428571427</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="8"/>
         <v>5261020.111111111</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -11722,15 +17249,19 @@
         <v>6117373.5</v>
       </c>
       <c r="C142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5468929.4000000004</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5334859.7142857146</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="8"/>
         <v>5420822.944444444</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -11738,15 +17269,19 @@
         <v>5229808</v>
       </c>
       <c r="C143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5393475.4000000004</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5330413.5</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="8"/>
         <v>5300531.5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -11754,15 +17289,19 @@
         <v>5054508.5</v>
       </c>
       <c r="C144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5303804.4000000004</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5375566.2142857146</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="8"/>
         <v>5292037.166666667</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -11770,15 +17309,19 @@
         <v>8692135</v>
       </c>
       <c r="C145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6102251.0999999996</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5816288.6428571427</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="8"/>
         <v>5673282</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -11786,15 +17329,19 @@
         <v>7546256</v>
       </c>
       <c r="C146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6528016.2000000002</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6108201.8571428573</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="8"/>
         <v>5985261.611111111</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -11802,15 +17349,19 @@
         <v>5423116</v>
       </c>
       <c r="C147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6389164.7000000002</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6211518.2142857146</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="8"/>
         <v>5964821.388888889</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -11818,15 +17369,19 @@
         <v>5765715</v>
       </c>
       <c r="C148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6496346.0999999996</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6261273.1428571427</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="8"/>
         <v>5994027.111111111</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -11834,15 +17389,19 @@
         <v>11334009</v>
       </c>
       <c r="C149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7752246.2000000002</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>7006506.7857142854</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="8"/>
         <v>6731150.166666667</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -11850,15 +17409,19 @@
         <v>12906612</v>
       </c>
       <c r="C150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8595141.5999999996</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>8103193.0714285718</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="8"/>
         <v>7563281.444444444</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -11866,15 +17429,19 @@
         <v>4980893.5</v>
       </c>
       <c r="C151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8082069.0999999996</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>8092676.6428571427</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="8"/>
         <v>7437005.888888889</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -11882,15 +17449,19 @@
         <v>6752213.5</v>
       </c>
       <c r="C152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8347888.5999999996</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>7815545</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="8"/>
         <v>7606162.055555556</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -11898,15 +17469,19 @@
         <v>9765732</v>
       </c>
       <c r="C153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9147892</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>8132613</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="8"/>
         <v>8129631.333333333</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -11914,15 +17489,19 @@
         <v>5297921.5</v>
       </c>
       <c r="C154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7940674.5</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>8114728.0714285718</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="8"/>
         <v>7752496.5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -11930,15 +17509,19 @@
         <v>2903029</v>
       </c>
       <c r="C155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5939957.9000000004</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>7705772.9285714282</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="8"/>
         <v>7236582.388888889</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -11946,15 +17529,19 @@
         <v>3890236.5</v>
       </c>
       <c r="C156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5721826.5</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6642376.8571428573</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="8"/>
         <v>7066262.444444444</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11962,15 +17549,19 @@
         <v>5158925.5</v>
       </c>
       <c r="C157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5403168.9000000004</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5535564.5</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="8"/>
         <v>6998841.388888889</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11978,15 +17569,19 @@
         <v>5358624.5</v>
       </c>
       <c r="C158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4521747.4000000004</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5589526.0714285718</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="8"/>
         <v>6334909.777777778</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -11994,15 +17589,19 @@
         <v>9735543</v>
       </c>
       <c r="C159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5409271.7000000002</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6015716</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="8"/>
         <v>5982568.777777778</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -12010,15 +17609,19 @@
         <v>12590828</v>
       </c>
       <c r="C160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7346831.5</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6419301.1428571427</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="8"/>
         <v>6828117.055555556</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -12026,15 +17629,19 @@
         <v>8751820</v>
       </c>
       <c r="C161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8319148.2000000002</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6912715.2142857146</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="8"/>
         <v>7050295.555555556</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -12042,15 +17649,19 @@
         <v>6171116.5</v>
       </c>
       <c r="C162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8521586.4000000004</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>7379584.8571428573</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="8"/>
         <v>6650893.833333333</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -12058,15 +17669,19 @@
         <v>3871202.5</v>
       </c>
       <c r="C163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8224102</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>7376865.7142857146</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="8"/>
         <v>6492369.5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -12074,15 +17689,19 @@
         <v>3227020</v>
       </c>
       <c r="C164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6922397.4000000004</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>7100879.2142857146</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="8"/>
         <v>6528368.5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -12090,15 +17709,19 @@
         <v>4287753.5</v>
       </c>
       <c r="C165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5261782.5</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6947897.6428571427</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="8"/>
         <v>6572537.055555556</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -12106,15 +17729,19 @@
         <v>4674149</v>
       </c>
       <c r="C166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4446248.3</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>6224841.3571428573</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="8"/>
         <v>6518673</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -12122,15 +17749,19 @@
         <v>6439578.5</v>
       </c>
       <c r="C167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4499940.7</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5346091.4285714282</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="8"/>
         <v>6638779</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -12138,15 +17769,19 @@
         <v>3436388.75</v>
       </c>
       <c r="C168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4412977.95</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4586744.1071428573</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="8"/>
         <v>5938872.972222222</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -12154,15 +17789,19 @@
         <v>5178281.5</v>
       </c>
       <c r="C169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4803230.25</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4444910.5357142854</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="8"/>
         <v>5115256.694444444</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -12170,15 +17809,19 @@
         <v>4503671</v>
       </c>
       <c r="C170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4846413.75</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4535263.1785714282</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="8"/>
         <v>4643240.138888889</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -12186,15 +17829,19 @@
         <v>5413205</v>
       </c>
       <c r="C171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4994224.95</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4847575.3214285718</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="8"/>
         <v>4559027.75</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -12202,15 +17849,19 @@
         <v>3899869.5</v>
       </c>
       <c r="C172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4486283.1500000004</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4792163.3214285718</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="8"/>
         <v>4562212.972222222</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -12218,15 +17869,19 @@
         <v>4911859.5</v>
       </c>
       <c r="C173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4781377.3</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4826121.9642857146</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="8"/>
         <v>4749417.361111111</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -12234,15 +17889,19 @@
         <v>4645727.5</v>
       </c>
       <c r="C174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4674866.5</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4569857.5357142854</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="8"/>
         <v>4789192.25</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -12250,15 +17909,19 @@
         <v>4965613</v>
       </c>
       <c r="C175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4767254.9000000004</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4788318.1428571427</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="8"/>
         <v>4821577.138888889</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -12266,15 +17929,19 @@
         <v>4555344.5</v>
       </c>
       <c r="C176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4595682.8</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4699327.1428571427</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="8"/>
         <v>4612217.805555556</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -12282,15 +17949,19 @@
         <v>5123645.5</v>
       </c>
       <c r="C177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4840438</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4787894.9285714282</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="8"/>
         <v>4799690.777777778</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -12298,15 +17969,19 @@
         <v>4214745.5</v>
       </c>
       <c r="C178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4701015.2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4616686.4285714282</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="8"/>
         <v>4692631.222222222</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -12314,15 +17989,19 @@
         <v>4683042.5</v>
       </c>
       <c r="C179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4708478.2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4728568.2857142854</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="8"/>
         <v>4712561.388888889</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -12330,15 +18009,19 @@
         <v>4971905.5</v>
       </c>
       <c r="C180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4709736.7</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4737146.2857142854</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="8"/>
         <v>4663528.111111111</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -12346,15 +18029,19 @@
         <v>5800069.5</v>
       </c>
       <c r="C181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4958681.7</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4902052.2857142854</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="8"/>
         <v>4874661.444444444</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -12362,15 +18049,19 @@
         <v>3723150.75</v>
       </c>
       <c r="C182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4678582.75</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4724557.6785714282</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="8"/>
         <v>4742582.694444444</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -12378,15 +18069,19 @@
         <v>7343038.5</v>
       </c>
       <c r="C183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5304241.3499999996</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5122799.6785714282</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="8"/>
         <v>5042283.916666667</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -12394,15 +18089,19 @@
         <v>4865394</v>
       </c>
       <c r="C184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5340711.6500000004</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5085906.6071428573</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="8"/>
         <v>5031148.472222222</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -12410,15 +18109,19 @@
         <v>4596842.5</v>
       </c>
       <c r="C185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5265699.05</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5140491.8928571427</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="8"/>
         <v>5035759.361111111</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -12426,15 +18129,19 @@
         <v>4963453</v>
       </c>
       <c r="C186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5098375.75</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5180550.5357142854</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="8"/>
         <v>5017960.194444444</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -12442,15 +18149,19 @@
         <v>5743875</v>
       </c>
       <c r="C187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5502520.5999999996</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5290831.8928571427</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="8"/>
         <v>5187863.472222222</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -12458,15 +18169,19 @@
         <v>4761834.5</v>
       </c>
       <c r="C188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4986279.8</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5142512.6071428573</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="8"/>
         <v>5196618.138888889</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -12474,15 +18189,19 @@
         <v>5143711.5</v>
       </c>
       <c r="C189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5041943.3</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5345449.8571428573</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="8"/>
         <v>5215707.694444444</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -12490,15 +18209,19 @@
         <v>4729290</v>
       </c>
       <c r="C190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5068432.8</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4972057.2142857146</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="8"/>
         <v>5096732.194444444</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -12506,15 +18229,19 @@
         <v>4822514</v>
       </c>
       <c r="C191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5040245</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4965931.5</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="8"/>
         <v>5218883.666666667</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -12522,15 +18249,19 @@
         <v>3633909.75</v>
       </c>
       <c r="C192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4618251.95</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4828369.6785714282</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="8"/>
         <v>4806758.25</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -12538,15 +18269,19 @@
         <v>5193711.5</v>
       </c>
       <c r="C193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4704627.3499999996</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4861263.75</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="8"/>
         <v>4843237.972222222</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12554,15 +18289,19 @@
         <v>4719381</v>
       </c>
       <c r="C194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4619761.25</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>4714907.4642857146</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="8"/>
         <v>4856853.361111111</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12570,15 +18309,19 @@
         <v>7102574.5</v>
       </c>
       <c r="C195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5094418.1500000004</v>
       </c>
       <c r="D195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5049298.8928571427</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="8"/>
         <v>5094533.527777778</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -12586,15 +18329,19 @@
         <v>5346798</v>
       </c>
       <c r="C196">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5199274.95</v>
       </c>
       <c r="D196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5078311.25</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="8"/>
         <v>5050413.861111111</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12602,15 +18349,19 @@
         <v>5488038.5</v>
       </c>
       <c r="C197">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5570100.7000000002</v>
       </c>
       <c r="D197">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5186703.8928571427</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="8"/>
         <v>5131103.194444444</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -12618,15 +18369,19 @@
         <v>4779251.5</v>
       </c>
       <c r="C198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5487208.7000000002</v>
       </c>
       <c r="D198">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5180523.5357142854</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="8"/>
         <v>5090607.638888889</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -12634,15 +18389,19 @@
         <v>4183995.25</v>
       </c>
       <c r="C199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5380131.5499999998</v>
       </c>
       <c r="D199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5259107.1785714282</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="8"/>
         <v>5030019.333333333</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -12650,15 +18409,19 @@
         <v>4972591</v>
       </c>
       <c r="C200">
-        <f t="shared" ref="C200:C219" si="6">AVERAGE(B196:B200)</f>
+        <f t="shared" ref="C200:C219" si="9">AVERAGE(B196:B200)</f>
         <v>4954134.8499999996</v>
       </c>
       <c r="D200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5227518.5357142854</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="8"/>
         <v>5046694.555555556</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -12666,15 +18429,19 @@
         <v>5322290.5</v>
       </c>
       <c r="C201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4949233.3499999996</v>
       </c>
       <c r="D201">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>5313648.4642857146</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="8"/>
         <v>5234292.416666667</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -12682,15 +18449,19 @@
         <v>4881391.5</v>
       </c>
       <c r="C202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4827903.95</v>
       </c>
       <c r="D202">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D202:D219" si="10">AVERAGE(B196:B202)</f>
+        <v>4996336.6071428573</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="8"/>
         <v>5199590.194444444</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -12698,15 +18469,19 @@
         <v>4285604</v>
       </c>
       <c r="C203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4729174.45</v>
       </c>
       <c r="D203">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
+        <v>4844737.4642857146</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="8"/>
         <v>5151392.75</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -12714,15 +18489,19 @@
         <v>4673066.5</v>
       </c>
       <c r="C204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4826988.7</v>
       </c>
       <c r="D204">
-        <f t="shared" ref="D204:D219" si="7">AVERAGE(B196:B204)</f>
+        <f t="shared" si="10"/>
+        <v>4728312.8928571427</v>
+      </c>
+      <c r="E204">
+        <f t="shared" ref="E204:E219" si="11">AVERAGE(B196:B204)</f>
         <v>4881447.416666667</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -12730,15 +18509,19 @@
         <v>5365142</v>
       </c>
       <c r="C205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4905498.9000000004</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>4812011.5357142854</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="11"/>
         <v>4883485.638888889</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -12746,15 +18529,19 @@
         <v>5057589</v>
       </c>
       <c r="C206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4852558.5999999996</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>4936810.6428571427</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="11"/>
         <v>4835657.916666667</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -12762,15 +18549,19 @@
         <v>6569687</v>
       </c>
       <c r="C207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5190217.7</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5164967.2142857146</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="11"/>
         <v>5034595.194444444</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -12778,15 +18569,19 @@
         <v>4419515.5</v>
       </c>
       <c r="C208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5217000</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5035999.3571428573</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="11"/>
         <v>5060764.111111111</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -12794,15 +18589,19 @@
         <v>5049977.5</v>
       </c>
       <c r="C209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5292382.2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5060083.0714285718</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="11"/>
         <v>5069362.611111111</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12810,15 +18609,19 @@
         <v>5794102</v>
       </c>
       <c r="C210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5378174.2000000002</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5275582.7857142854</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="11"/>
         <v>5121786.111111111</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -12826,15 +18629,19 @@
         <v>5154075.5</v>
       </c>
       <c r="C211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5397471.5</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5344298.3571428573</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="11"/>
         <v>5152084.333333333</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -12842,15 +18649,19 @@
         <v>4748977</v>
       </c>
       <c r="C212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5033329.5</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5256274.7857142854</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="11"/>
         <v>5203570.222222222</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -12858,15 +18669,19 @@
         <v>4203926.5</v>
       </c>
       <c r="C213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4990211.7</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5134323</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="11"/>
         <v>5151443.555555556</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12874,15 +18689,19 @@
         <v>5531970.5</v>
       </c>
       <c r="C214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5086610.3</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>4986077.7857142854</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="11"/>
         <v>5169980.055555556</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12890,15 +18709,19 @@
         <v>5118713</v>
       </c>
       <c r="C215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4951532.5</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5085963.1428571427</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="11"/>
         <v>5176771.611111111</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12906,15 +18729,19 @@
         <v>5154351</v>
       </c>
       <c r="C216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4951587.5999999996</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5100873.6428571427</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="11"/>
         <v>5019512.055555556</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12922,15 +18749,19 @@
         <v>4751547</v>
       </c>
       <c r="C217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4952101.5999999996</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>4951937.2142857146</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="11"/>
         <v>5056404.444444444</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12938,15 +18769,19 @@
         <v>5628076.5</v>
       </c>
       <c r="C218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5236931.5999999996</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5019651.6428571427</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="11"/>
         <v>5120637.666666667</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12954,17 +18789,21 @@
         <v>7197842</v>
       </c>
       <c r="C219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5570105.9000000004</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>5369489.5</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="11"/>
         <v>5276608.777777778</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
